--- a/data/trans_camb/P8_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 9,04</t>
+          <t>-4,07; 8,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 6,46</t>
+          <t>-5,57; 6,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 15,82</t>
+          <t>1,05; 16,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 7,52</t>
+          <t>-5,3; 7,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 10,37</t>
+          <t>0,32; 10,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,16</t>
+          <t>-3,86; 5,13</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 71,67</t>
+          <t>-24,37; 67,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 51,86</t>
+          <t>-29,35; 54,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 104,5</t>
+          <t>2,94; 106,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 51,48</t>
+          <t>-22,58; 48,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 71,46</t>
+          <t>1,8; 71,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 36,02</t>
+          <t>-18,39; 35,84</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 6,68</t>
+          <t>-4,07; 5,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,48</t>
+          <t>-6,24; 2,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,45</t>
+          <t>0,84; 10,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 6,21</t>
+          <t>-4,44; 6,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 2,03</t>
+          <t>-8,44; 2,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,97</t>
+          <t>-4,68; 5,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 4,83</t>
+          <t>-2,5; 4,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 1,29</t>
+          <t>-5,8; 0,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 6,94</t>
+          <t>-0,62; 6,53</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 57,06</t>
+          <t>-24,34; 47,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 21,79</t>
+          <t>-39,73; 19,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 88,38</t>
+          <t>3,97; 89,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 28,08</t>
+          <t>-16,78; 28,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 9,5</t>
+          <t>-31,12; 10,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 22,16</t>
+          <t>-16,7; 24,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 28,33</t>
+          <t>-11,88; 27,91</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 7,65</t>
+          <t>-27,88; 6,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 39,71</t>
+          <t>-3,04; 38,18</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 10,0</t>
+          <t>-0,65; 10,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 6,51</t>
+          <t>-3,72; 6,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 8,4</t>
+          <t>-1,57; 8,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 4,7</t>
+          <t>-8,77; 4,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,1; -0,2</t>
+          <t>-13,29; -0,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -0,47</t>
+          <t>-12,03; -0,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,34</t>
+          <t>-3,24; 5,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,28</t>
+          <t>-6,89; 2,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 2,91</t>
+          <t>-5,31; 2,37</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 112,48</t>
+          <t>-7,28; 112,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 70,91</t>
+          <t>-26,35; 68,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 98,9</t>
+          <t>-11,3; 92,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 21,64</t>
+          <t>-30,42; 18,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,56; -0,14</t>
+          <t>-46,14; -2,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,39; -1,76</t>
+          <t>-41,11; -1,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 31,23</t>
+          <t>-16,16; 32,01</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 7,97</t>
+          <t>-32,95; 11,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 17,83</t>
+          <t>-25,03; 15,41</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,14</t>
+          <t>-1,86; 7,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,53</t>
+          <t>-2,45; 7,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 11,87</t>
+          <t>0,47; 11,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 11,31</t>
+          <t>0,95; 11,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 10,07</t>
+          <t>-3,27; 9,81</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 2,66</t>
+          <t>-8,58; 2,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,01</t>
+          <t>0,48; 7,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,21</t>
+          <t>-1,17; 6,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 5,5</t>
+          <t>-2,54; 5,2</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 67,78</t>
+          <t>-12,29; 70,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 73,27</t>
+          <t>-16,78; 72,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 106,69</t>
+          <t>2,75; 112,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 56,44</t>
+          <t>4,06; 61,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 51,33</t>
+          <t>-13,02; 47,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 13,59</t>
+          <t>-32,09; 12,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,94; 49,91</t>
+          <t>2,24; 48,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 45,19</t>
+          <t>-6,21; 42,88</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 33,42</t>
+          <t>-13,17; 32,02</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 14,9</t>
+          <t>1,92; 14,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 9,26</t>
+          <t>-2,49; 9,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 8,1</t>
+          <t>-1,9; 8,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,0; 19,66</t>
+          <t>3,77; 20,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 11,21</t>
+          <t>-4,89; 10,92</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 12,9</t>
+          <t>-2,66; 13,36</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,67; 15,73</t>
+          <t>4,56; 15,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 8,16</t>
+          <t>-2,49; 7,75</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,7</t>
+          <t>-0,23; 9,51</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,32; 239,74</t>
+          <t>15,8; 233,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 147,87</t>
+          <t>-24,95; 137,45</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 123,51</t>
+          <t>-16,96; 137,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18,02; 143,46</t>
+          <t>16,28; 138,24</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 79,84</t>
+          <t>-22,46; 72,98</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 89,7</t>
+          <t>-10,94; 92,43</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>25,89; 135,03</t>
+          <t>24,86; 131,13</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 72,25</t>
+          <t>-16,01; 63,62</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 87,08</t>
+          <t>-0,26; 83,49</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 10,85</t>
+          <t>-1,79; 11,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 12,37</t>
+          <t>-0,9; 11,95</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 2,64</t>
+          <t>-8,01; 2,47</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 9,51</t>
+          <t>-5,05; 10,78</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 12,32</t>
+          <t>-3,15; 12,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,22; -0,36</t>
+          <t>-12,37; 0,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 8,32</t>
+          <t>-0,86; 8,59</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 9,64</t>
+          <t>-0,52; 9,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,25; -0,26</t>
+          <t>-8,41; -0,42</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 90,47</t>
+          <t>-9,02; 96,67</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 103,01</t>
+          <t>-5,7; 96,54</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 23,54</t>
+          <t>-42,62; 21,07</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 42,67</t>
+          <t>-17,28; 50,38</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 54,73</t>
+          <t>-11,16; 54,89</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,98; -2,11</t>
+          <t>-41,19; 0,27</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 45,95</t>
+          <t>-4,18; 48,17</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 54,63</t>
+          <t>-2,91; 49,5</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,02; -1,59</t>
+          <t>-35,29; -2,03</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 1,43</t>
+          <t>-6,5; 1,08</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,01</t>
+          <t>-3,09; 5,05</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 5,83</t>
+          <t>-2,74; 5,57</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,72</t>
+          <t>-3,19; 6,95</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 4,66</t>
+          <t>-4,51; 4,98</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 4,26</t>
+          <t>-11,34; 4,42</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,16</t>
+          <t>-3,52; 2,89</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,64</t>
+          <t>-2,75; 3,47</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 3,87</t>
+          <t>-4,75; 4,03</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 11,85</t>
+          <t>-37,7; 8,12</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 36,93</t>
+          <t>-18,03; 37,59</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 43,85</t>
+          <t>-15,36; 41,68</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 32,11</t>
+          <t>-12,18; 34,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 22,87</t>
+          <t>-17,89; 24,9</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 18,86</t>
+          <t>-43,12; 19,8</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 17,59</t>
+          <t>-16,7; 16,23</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 19,89</t>
+          <t>-12,97; 19,77</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 20,97</t>
+          <t>-22,71; 22,25</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,13</t>
+          <t>-2,44; 4,79</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 1,28</t>
+          <t>-5,94; 1,04</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 20,48</t>
+          <t>-2,9; 22,08</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,8</t>
+          <t>-5,6; 3,05</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 0,42</t>
+          <t>-8,55; 0,44</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,99</t>
+          <t>-3,96; 4,66</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 3,01</t>
+          <t>-2,59; 3,01</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-6,12; -0,42</t>
+          <t>-5,97; -0,59</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 10,71</t>
+          <t>-1,43; 11,28</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 42,06</t>
+          <t>-14,22; 37,42</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 9,52</t>
+          <t>-36,2; 8,61</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 155,56</t>
+          <t>-19,21; 166,87</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 13,2</t>
+          <t>-21,3; 14,72</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 2,0</t>
+          <t>-33,41; 1,96</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 23,82</t>
+          <t>-15,91; 22,59</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 16,44</t>
+          <t>-12,82; 17,26</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-29,42; -2,32</t>
+          <t>-28,83; -3,2</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 58,95</t>
+          <t>-7,65; 59,82</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,52</t>
+          <t>-0,03; 3,61</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,41</t>
+          <t>-1,21; 2,27</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,54</t>
+          <t>0,88; 7,53</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,59</t>
+          <t>0,33; 4,63</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,59</t>
+          <t>-2,42; 1,76</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,11</t>
+          <t>-3,74; 0,97</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,49</t>
+          <t>0,68; 3,53</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,51</t>
+          <t>-1,32; 1,39</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,25</t>
+          <t>-0,41; 3,26</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 26,88</t>
+          <t>-0,12; 27,6</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 18,36</t>
+          <t>-8,16; 17,3</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>6,17; 55,29</t>
+          <t>6,05; 56,52</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1,98; 20,41</t>
+          <t>1,18; 20,59</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 7,1</t>
+          <t>-10,08; 8,0</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 4,87</t>
+          <t>-15,78; 4,29</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>4,23; 19,41</t>
+          <t>3,5; 19,59</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 8,4</t>
+          <t>-6,86; 7,89</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 17,75</t>
+          <t>-2,22; 17,76</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 8,63</t>
+          <t>-4,52; 8,31</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,57; 6,6</t>
+          <t>-5,8; 5,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 16,1</t>
+          <t>0,96; 14,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 7,17</t>
+          <t>-4,79; 6,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 10,08</t>
+          <t>0,18; 10,07</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 5,13</t>
+          <t>-3,42; 4,81</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 67,52</t>
+          <t>-24,5; 66,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 54,6</t>
+          <t>-31,4; 46,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 106,72</t>
+          <t>3,57; 95,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 48,41</t>
+          <t>-21,0; 45,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,8; 71,05</t>
+          <t>0,67; 67,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,39; 35,84</t>
+          <t>-17,35; 32,26</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 5,61</t>
+          <t>-3,39; 6,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 2,14</t>
+          <t>-5,94; 2,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,84; 10,76</t>
+          <t>1,12; 11,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 6,24</t>
+          <t>-4,44; 6,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 2,32</t>
+          <t>-8,33; 2,08</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 5,21</t>
+          <t>-4,72; 5,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 4,78</t>
+          <t>-2,34; 5,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 0,97</t>
+          <t>-5,39; 1,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 6,53</t>
+          <t>-0,73; 6,44</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,34; 47,76</t>
+          <t>-22,05; 53,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 19,04</t>
+          <t>-37,98; 22,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,97; 89,57</t>
+          <t>7,07; 96,48</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 28,67</t>
+          <t>-16,55; 28,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,12; 10,75</t>
+          <t>-30,23; 9,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 24,16</t>
+          <t>-16,78; 24,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,88; 27,91</t>
+          <t>-11,32; 29,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 6,01</t>
+          <t>-26,14; 7,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 38,18</t>
+          <t>-3,48; 37,32</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 10,29</t>
+          <t>-0,46; 10,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 6,02</t>
+          <t>-3,18; 6,65</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 8,18</t>
+          <t>-1,71; 7,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,77; 4,28</t>
+          <t>-9,62; 4,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,29; -0,49</t>
+          <t>-13,19; 0,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,03; -0,21</t>
+          <t>-11,89; -0,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 5,38</t>
+          <t>-3,61; 5,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 2,04</t>
+          <t>-7,0; 1,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 2,37</t>
+          <t>-5,73; 2,36</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 112,52</t>
+          <t>-3,81; 113,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 68,63</t>
+          <t>-25,18; 76,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 92,42</t>
+          <t>-13,51; 89,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 18,66</t>
+          <t>-34,03; 19,62</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,14; -2,46</t>
+          <t>-46,61; 1,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,11; -1,17</t>
+          <t>-40,78; -2,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 32,01</t>
+          <t>-17,45; 30,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,95; 11,85</t>
+          <t>-33,51; 8,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 15,41</t>
+          <t>-27,12; 14,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 7,22</t>
+          <t>-2,1; 7,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 7,65</t>
+          <t>-2,72; 7,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,47; 11,75</t>
+          <t>0,0; 11,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,95; 11,86</t>
+          <t>0,65; 11,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 9,81</t>
+          <t>-3,3; 9,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 2,65</t>
+          <t>-8,14; 2,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 7,89</t>
+          <t>0,83; 7,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 6,91</t>
+          <t>-1,24; 6,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 5,2</t>
+          <t>-2,0; 5,99</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 70,2</t>
+          <t>-13,33; 74,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 72,02</t>
+          <t>-17,81; 79,41</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,75; 112,96</t>
+          <t>0,13; 114,25</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,06; 61,33</t>
+          <t>3,27; 58,71</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 47,26</t>
+          <t>-12,75; 49,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,09; 12,6</t>
+          <t>-31,01; 12,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2,24; 48,6</t>
+          <t>4,02; 49,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 42,88</t>
+          <t>-6,31; 42,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 32,02</t>
+          <t>-9,89; 36,66</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,92; 14,69</t>
+          <t>1,45; 15,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 9,49</t>
+          <t>-2,55; 8,58</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 8,85</t>
+          <t>-2,56; 8,08</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,77; 20,1</t>
+          <t>3,65; 20,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 10,92</t>
+          <t>-5,53; 10,94</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 13,36</t>
+          <t>-4,93; 13,05</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,56; 15,47</t>
+          <t>4,59; 15,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,75</t>
+          <t>-1,69; 8,28</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,51</t>
+          <t>-0,4; 9,86</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>15,8; 233,76</t>
+          <t>7,06; 233,48</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,95; 137,45</t>
+          <t>-23,35; 135,57</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-16,96; 137,51</t>
+          <t>-22,67; 119,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>16,28; 138,24</t>
+          <t>15,63; 142,03</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,46; 72,98</t>
+          <t>-24,35; 73,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 92,43</t>
+          <t>-20,49; 89,66</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>24,86; 131,13</t>
+          <t>26,51; 131,77</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-16,01; 63,62</t>
+          <t>-10,65; 69,11</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 83,49</t>
+          <t>-2,47; 84,94</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 11,2</t>
+          <t>-1,85; 10,59</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 11,95</t>
+          <t>-1,22; 11,31</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 2,47</t>
+          <t>-7,77; 2,72</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 10,78</t>
+          <t>-5,61; 10,16</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 12,38</t>
+          <t>-3,0; 12,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 0,1</t>
+          <t>-12,69; -0,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 8,59</t>
+          <t>-1,98; 7,89</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 9,54</t>
+          <t>-0,2; 9,97</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,41; -0,42</t>
+          <t>-8,56; -0,59</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 96,67</t>
+          <t>-10,42; 85,31</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 96,54</t>
+          <t>-7,12; 89,17</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 21,07</t>
+          <t>-41,98; 24,35</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-17,28; 50,38</t>
+          <t>-19,11; 46,33</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-11,16; 54,89</t>
+          <t>-10,84; 54,88</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,19; 0,27</t>
+          <t>-41,26; -0,25</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 48,17</t>
+          <t>-8,12; 43,15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 49,5</t>
+          <t>-1,03; 55,39</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-35,29; -2,03</t>
+          <t>-36,42; -3,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 1,08</t>
+          <t>-7,03; 1,0</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 5,05</t>
+          <t>-2,99; 4,84</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 5,57</t>
+          <t>-3,2; 5,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 6,95</t>
+          <t>-2,67; 7,07</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 4,98</t>
+          <t>-4,73; 4,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 4,42</t>
+          <t>-9,79; 4,33</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 2,89</t>
+          <t>-3,39; 2,97</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,47</t>
+          <t>-2,78; 3,43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 4,03</t>
+          <t>-4,29; 3,95</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 8,12</t>
+          <t>-39,79; 6,92</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 37,59</t>
+          <t>-17,97; 34,57</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 41,68</t>
+          <t>-18,69; 41,05</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 34,11</t>
+          <t>-10,7; 34,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 24,9</t>
+          <t>-18,53; 22,91</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-43,12; 19,8</t>
+          <t>-40,7; 19,17</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-16,7; 16,23</t>
+          <t>-16,16; 16,62</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-12,97; 19,77</t>
+          <t>-13,11; 19,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 22,25</t>
+          <t>-21,51; 21,94</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 4,79</t>
+          <t>-2,36; 5,1</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 1,04</t>
+          <t>-5,98; 1,12</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 22,08</t>
+          <t>-3,04; 21,83</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 3,05</t>
+          <t>-5,22; 3,11</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 0,44</t>
+          <t>-7,87; 0,57</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 4,66</t>
+          <t>-3,22; 5,01</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,01</t>
+          <t>-2,6; 3,41</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-5,97; -0,59</t>
+          <t>-5,85; -0,19</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 11,28</t>
+          <t>-1,74; 10,25</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-14,22; 37,42</t>
+          <t>-14,62; 39,26</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-36,2; 8,61</t>
+          <t>-35,52; 9,22</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 166,87</t>
+          <t>-20,87; 166,62</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 14,72</t>
+          <t>-20,78; 14,11</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-33,41; 1,96</t>
+          <t>-30,8; 2,64</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 22,59</t>
+          <t>-12,54; 24,82</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-12,82; 17,26</t>
+          <t>-12,65; 19,87</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-28,83; -3,2</t>
+          <t>-29,04; -1,25</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 59,82</t>
+          <t>-8,79; 57,36</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 3,61</t>
+          <t>-0,0; 3,4</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 2,27</t>
+          <t>-1,31; 2,0</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,53</t>
+          <t>0,7; 7,36</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,63</t>
+          <t>0,45; 4,78</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,76</t>
+          <t>-2,54; 1,62</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 0,97</t>
+          <t>-3,42; 1,11</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,53</t>
+          <t>0,7; 3,56</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 1,39</t>
+          <t>-1,18; 1,45</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,26</t>
+          <t>-0,42; 3,35</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 27,6</t>
+          <t>-0,11; 26,07</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,16; 17,3</t>
+          <t>-8,75; 15,16</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>6,05; 56,52</t>
+          <t>4,35; 53,1</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1,18; 20,59</t>
+          <t>1,89; 21,53</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 8,0</t>
+          <t>-10,56; 7,36</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 4,29</t>
+          <t>-13,93; 5,06</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>3,5; 19,59</t>
+          <t>3,42; 19,4</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 7,89</t>
+          <t>-6,1; 8,1</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 17,76</t>
+          <t>-2,11; 18,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 8,31</t>
+          <t>-3,85; 9,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 5,86</t>
+          <t>-6,02; 6,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 14,98</t>
+          <t>1,03; 15,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 6,94</t>
+          <t>-4,54; 7,52</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 10,07</t>
+          <t>0,19; 10,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,81</t>
+          <t>-3,25; 5,16</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,5; 66,99</t>
+          <t>-20,9; 71,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 46,26</t>
+          <t>-31,9; 51,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,57; 95,56</t>
+          <t>4,58; 104,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,0; 45,71</t>
+          <t>-20,03; 51,48</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 67,73</t>
+          <t>1,01; 71,46</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-17,35; 32,26</t>
+          <t>-16,86; 36,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 6,09</t>
+          <t>-3,19; 6,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 2,6</t>
+          <t>-5,88; 2,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 11,06</t>
+          <t>0,96; 10,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 6,26</t>
+          <t>-4,93; 6,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 2,08</t>
+          <t>-9,08; 2,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 5,41</t>
+          <t>-4,34; 4,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 5,02</t>
+          <t>-2,28; 4,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 1,34</t>
+          <t>-5,85; 1,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 6,44</t>
+          <t>-0,56; 6,94</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,05; 53,08</t>
+          <t>-20,36; 57,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 22,12</t>
+          <t>-36,59; 21,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,07; 96,48</t>
+          <t>4,48; 88,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 28,04</t>
+          <t>-17,69; 28,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,23; 9,95</t>
+          <t>-32,34; 9,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,78; 24,46</t>
+          <t>-15,89; 22,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 29,52</t>
+          <t>-11,05; 28,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,14; 7,87</t>
+          <t>-27,71; 7,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 37,32</t>
+          <t>-2,83; 39,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 10,2</t>
+          <t>-1,16; 10,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 6,65</t>
+          <t>-3,6; 6,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 7,94</t>
+          <t>-1,51; 8,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 4,31</t>
+          <t>-9,01; 4,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,19; 0,3</t>
+          <t>-13,1; -0,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -0,52</t>
+          <t>-11,72; -0,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 5,08</t>
+          <t>-3,53; 5,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,0; 1,53</t>
+          <t>-6,65; 1,28</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 2,36</t>
+          <t>-4,98; 2,91</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 113,56</t>
+          <t>-9,5; 112,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,18; 76,52</t>
+          <t>-25,56; 70,91</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 89,02</t>
+          <t>-12,57; 98,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 19,62</t>
+          <t>-31,28; 21,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,61; 1,3</t>
+          <t>-45,56; -0,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,78; -2,32</t>
+          <t>-40,39; -1,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 30,84</t>
+          <t>-16,85; 31,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 8,84</t>
+          <t>-32,28; 7,97</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-27,12; 14,37</t>
+          <t>-23,7; 17,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 7,59</t>
+          <t>-2,06; 7,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 7,74</t>
+          <t>-2,15; 7,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,94</t>
+          <t>0,02; 11,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,65; 11,42</t>
+          <t>-0,31; 11,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 9,76</t>
+          <t>-2,94; 10,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 2,52</t>
+          <t>-9,05; 2,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,83; 7,99</t>
+          <t>1,0; 8,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 6,96</t>
+          <t>-0,91; 7,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,99</t>
+          <t>-2,49; 5,5</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 74,41</t>
+          <t>-14,11; 67,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 79,41</t>
+          <t>-14,37; 73,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,13; 114,25</t>
+          <t>-2,37; 106,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,27; 58,71</t>
+          <t>-1,26; 56,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 49,7</t>
+          <t>-11,22; 51,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,01; 12,26</t>
+          <t>-32,82; 13,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,02; 49,98</t>
+          <t>4,94; 49,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 42,79</t>
+          <t>-4,73; 45,19</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,89; 36,66</t>
+          <t>-12,49; 33,42</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,45; 15,55</t>
+          <t>1,64; 14,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 8,58</t>
+          <t>-2,17; 9,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 8,08</t>
+          <t>-2,61; 8,1</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,65; 20,7</t>
+          <t>4,0; 19,66</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 10,94</t>
+          <t>-4,68; 11,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 13,05</t>
+          <t>-4,82; 12,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,38</t>
+          <t>4,67; 15,73</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 8,28</t>
+          <t>-1,78; 8,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 9,86</t>
+          <t>-0,23; 9,7</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>7,06; 233,48</t>
+          <t>13,32; 239,74</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-23,35; 135,57</t>
+          <t>-18,49; 147,87</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 119,45</t>
+          <t>-21,46; 123,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>15,63; 142,03</t>
+          <t>18,02; 143,46</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-24,35; 73,39</t>
+          <t>-21,76; 79,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 89,66</t>
+          <t>-19,18; 89,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>26,51; 131,77</t>
+          <t>25,89; 135,03</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,65; 69,11</t>
+          <t>-10,19; 72,25</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 84,94</t>
+          <t>-1,51; 87,08</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 10,59</t>
+          <t>-1,99; 10,85</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 11,31</t>
+          <t>-1,22; 12,37</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,77; 2,72</t>
+          <t>-7,89; 2,64</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 10,16</t>
+          <t>-5,14; 9,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 12,23</t>
+          <t>-3,07; 12,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,69; -0,27</t>
+          <t>-12,22; -0,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,89</t>
+          <t>-1,27; 8,32</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 9,97</t>
+          <t>-0,56; 9,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,56; -0,59</t>
+          <t>-8,25; -0,26</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 85,31</t>
+          <t>-10,6; 90,47</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 89,17</t>
+          <t>-6,62; 103,01</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-41,98; 24,35</t>
+          <t>-41,7; 23,54</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 46,33</t>
+          <t>-18,04; 42,67</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 54,88</t>
+          <t>-10,92; 54,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,26; -0,25</t>
+          <t>-41,98; -2,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 43,15</t>
+          <t>-5,47; 45,95</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 55,39</t>
+          <t>-1,77; 54,63</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,42; -3,11</t>
+          <t>-36,02; -1,59</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 1,0</t>
+          <t>-6,88; 1,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,84</t>
+          <t>-3,22; 5,01</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 5,53</t>
+          <t>-2,24; 5,83</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 7,07</t>
+          <t>-2,75; 6,72</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,76</t>
+          <t>-4,77; 4,66</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 4,33</t>
+          <t>-9,16; 4,26</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 2,97</t>
+          <t>-3,28; 3,16</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,43</t>
+          <t>-3,06; 3,64</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 3,95</t>
+          <t>-4,72; 3,87</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-39,79; 6,92</t>
+          <t>-38,85; 11,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,97; 34,57</t>
+          <t>-18,3; 36,93</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-18,69; 41,05</t>
+          <t>-12,91; 43,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 34,52</t>
+          <t>-10,49; 32,11</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,53; 22,91</t>
+          <t>-18,98; 22,87</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 19,17</t>
+          <t>-37,46; 18,86</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-16,16; 16,62</t>
+          <t>-16,05; 17,59</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 19,02</t>
+          <t>-14,6; 19,89</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 21,94</t>
+          <t>-22,76; 20,97</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 5,1</t>
+          <t>-2,27; 5,13</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 1,12</t>
+          <t>-5,6; 1,28</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 21,83</t>
+          <t>-2,7; 20,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 3,11</t>
+          <t>-5,67; 2,8</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 0,57</t>
+          <t>-8,04; 0,42</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,01</t>
+          <t>-3,75; 4,99</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 3,41</t>
+          <t>-2,88; 3,01</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-5,85; -0,19</t>
+          <t>-6,12; -0,42</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 10,25</t>
+          <t>-1,74; 10,71</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 39,26</t>
+          <t>-14,1; 42,06</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 9,22</t>
+          <t>-34,35; 9,52</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-20,87; 166,62</t>
+          <t>-17,87; 155,56</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 14,11</t>
+          <t>-22,28; 13,2</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-30,8; 2,64</t>
+          <t>-32,08; 2,0</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-12,54; 24,82</t>
+          <t>-14,68; 23,82</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 19,87</t>
+          <t>-14,16; 16,44</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-29,04; -1,25</t>
+          <t>-29,42; -2,32</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 57,36</t>
+          <t>-8,68; 58,95</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 3,4</t>
+          <t>-0,15; 3,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 2,0</t>
+          <t>-1,1; 2,41</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,7; 7,36</t>
+          <t>0,91; 7,54</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,78</t>
+          <t>0,51; 4,59</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 1,62</t>
+          <t>-2,39; 1,59</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 1,11</t>
+          <t>-3,29; 1,11</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,56</t>
+          <t>0,82; 3,49</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 1,45</t>
+          <t>-1,25; 1,51</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 3,35</t>
+          <t>-0,49; 3,25</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 26,07</t>
+          <t>-1,05; 26,88</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 15,16</t>
+          <t>-7,49; 18,36</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>4,35; 53,1</t>
+          <t>6,17; 55,29</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1,89; 21,53</t>
+          <t>1,98; 20,41</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 7,36</t>
+          <t>-9,93; 7,1</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 5,06</t>
+          <t>-13,51; 4,87</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>3,42; 19,4</t>
+          <t>4,23; 19,41</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 8,1</t>
+          <t>-6,45; 8,4</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 18,95</t>
+          <t>-2,53; 17,75</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,09</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-0,28</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,58; 6,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 6,46</t>
+          <t>-7,15; 5,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,14; 15,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 7,52</t>
+          <t>-5,25; 6,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,14; 8,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,16</t>
+          <t>-4,51; 3,98</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>-6,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>-1,62%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,51; 49,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-31,9; 51,86</t>
+          <t>-38,08; 41,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,24; 100,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,03; 51,48</t>
+          <t>-23,14; 46,4</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,92; 59,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-16,86; 36,02</t>
+          <t>-22,87; 27,75</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,71</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>2,34</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 10,45</t>
+          <t>-0,1; 9,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 4,97</t>
+          <t>-4,7; 4,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 6,94</t>
+          <t>-1,32; 6,16</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>41,88%</t>
+          <t>34,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,2%</t>
+          <t>12,19%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,48; 88,38</t>
+          <t>-0,97; 79,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 22,16</t>
+          <t>-17,45; 20,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 39,71</t>
+          <t>-6,35; 35,31</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-5,91</t>
+          <t>-6,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,27</t>
+          <t>-1,75</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 8,4</t>
+          <t>-1,98; 7,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,72; -0,47</t>
+          <t>-12,07; -0,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 2,91</t>
+          <t>-5,48; 2,4</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>25,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-23,18%</t>
+          <t>-24,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,8%</t>
+          <t>-9,39%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 98,9</t>
+          <t>-16,15; 88,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,39; -1,76</t>
+          <t>-41,58; -3,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,7; 17,83</t>
+          <t>-26,18; 14,6</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,01</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,07</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>-5,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>5,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,73</t>
+          <t>-0,37</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 7,14</t>
+          <t>-1,82; 8,6</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 11,87</t>
+          <t>-0,67; 11,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 11,31</t>
+          <t>1,69; 14,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 2,66</t>
+          <t>-15,25; 0,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,0; 8,01</t>
+          <t>1,48; 9,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 5,5</t>
+          <t>-6,0; 4,19</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>23,55%</t>
+          <t>23,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>34,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-11,19%</t>
+          <t>-25,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>30,41%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>-2,03%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 67,78</t>
+          <t>-12,62; 84,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 106,69</t>
+          <t>-3,75; 101,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 56,44</t>
+          <t>6,8; 73,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 13,59</t>
+          <t>-57,23; 0,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,94; 49,91</t>
+          <t>6,84; 60,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,49; 33,42</t>
+          <t>-31,28; 25,56</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>4,09</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 8,1</t>
+          <t>-2,63; 8,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 12,9</t>
+          <t>-10,51; 11,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 9,7</t>
+          <t>-2,73; 8,95</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>36,77%</t>
+          <t>29,16%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,46; 123,51</t>
+          <t>-21,92; 122,54</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,18; 89,7</t>
+          <t>-42,55; 73,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 87,08</t>
+          <t>-14,87; 78,26</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-6,16</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-4,41</t>
+          <t>-4,62</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 2,64</t>
+          <t>-8,13; 2,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,22; -0,36</t>
+          <t>-12,24; -0,48</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,25; -0,26</t>
+          <t>-8,47; -0,49</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-16,15%</t>
+          <t>-17,91%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-23,93%</t>
+          <t>-24,01%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-21,33%</t>
+          <t>-22,39%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 23,54</t>
+          <t>-43,15; 20,91</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,98; -2,11</t>
+          <t>-41,59; -2,12</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,02; -1,59</t>
+          <t>-36,89; -2,78</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-3,97</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>-1,39</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 5,83</t>
+          <t>-2,77; 5,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 4,26</t>
+          <t>-13,93; 3,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 3,87</t>
+          <t>-8,41; 2,72</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-4,48%</t>
+          <t>-17,19%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>-7,2%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-12,91; 43,85</t>
+          <t>-16,58; 38,22</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-37,46; 18,86</t>
+          <t>-60,43; 15,1</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 20,97</t>
+          <t>-40,36; 15,04</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>21,31</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,92</t>
+          <t>11,6</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 20,48</t>
+          <t>-2,5; 55,62</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 4,99</t>
+          <t>-3,71; 4,83</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,74; 10,71</t>
+          <t>-1,43; 38,25</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>23,88%</t>
+          <t>145,97%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>60,73%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 155,56</t>
+          <t>-16,62; 431,05</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,68; 23,82</t>
+          <t>-14,53; 22,89</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 58,95</t>
+          <t>-7,33; 211,81</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>7,31</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>2,39</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,54</t>
+          <t>0,78; 27,62</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,11</t>
+          <t>-6,16; -0,06</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 3,25</t>
+          <t>-1,01; 12,86</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>52,5%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>-3,86%</t>
+          <t>-10,24%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>6,17; 55,29</t>
+          <t>5,63; 197,56</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-13,51; 4,87</t>
+          <t>-25,67; -0,36</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 17,75</t>
+          <t>-5,29; 70,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_2_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P8_2_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 6,17</t>
+          <t>-5,98; 6,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 9,04</t>
+          <t>-4,27; 8,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 5,09</t>
+          <t>-7,17; 4,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,14; 15,34</t>
+          <t>0,34; 14,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 15,82</t>
+          <t>1,08; 15,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 6,65</t>
+          <t>-5,57; 6,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 8,76</t>
+          <t>-0,59; 8,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 10,37</t>
+          <t>0,43; 10,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 3,98</t>
+          <t>-4,48; 3,67</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-33,51; 49,57</t>
+          <t>-32,17; 51,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-20,9; 71,67</t>
+          <t>-22,54; 66,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 41,59</t>
+          <t>-38,11; 38,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,24; 100,91</t>
+          <t>1,71; 100,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,58; 104,5</t>
+          <t>4,43; 96,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 46,4</t>
+          <t>-24,03; 46,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,92; 59,22</t>
+          <t>-2,88; 59,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 71,46</t>
+          <t>1,92; 68,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,87; 27,75</t>
+          <t>-22,87; 24,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 6,68</t>
+          <t>-3,66; 6,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 2,48</t>
+          <t>-6,18; 2,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 9,39</t>
+          <t>0,1; 9,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 6,21</t>
+          <t>-4,15; 7,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 2,03</t>
+          <t>-8,07; 2,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 4,6</t>
+          <t>-4,93; 4,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 4,83</t>
+          <t>-2,69; 4,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 1,29</t>
+          <t>-6,22; 0,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 6,16</t>
+          <t>-0,83; 6,09</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-20,36; 57,06</t>
+          <t>-23,16; 53,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 21,79</t>
+          <t>-38,66; 24,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 79,42</t>
+          <t>0,38; 86,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 28,08</t>
+          <t>-15,44; 32,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-32,34; 9,5</t>
+          <t>-30,08; 11,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 20,01</t>
+          <t>-17,79; 21,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 28,33</t>
+          <t>-12,23; 27,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,71; 7,65</t>
+          <t>-29,33; 5,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 35,31</t>
+          <t>-3,8; 36,03</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 10,0</t>
+          <t>-0,92; 9,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 6,51</t>
+          <t>-3,46; 6,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 7,86</t>
+          <t>-1,75; 7,71</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 4,7</t>
+          <t>-9,24; 4,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,1; -0,2</t>
+          <t>-12,95; 0,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-12,07; -0,89</t>
+          <t>-12,04; -0,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,53; 5,34</t>
+          <t>-3,46; 5,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 1,28</t>
+          <t>-6,64; 1,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,4</t>
+          <t>-5,71; 2,13</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-9,5; 112,48</t>
+          <t>-7,91; 104,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 70,91</t>
+          <t>-25,89; 63,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 88,65</t>
+          <t>-13,87; 83,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 21,64</t>
+          <t>-31,78; 20,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-45,56; -0,14</t>
+          <t>-45,29; 1,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,58; -3,76</t>
+          <t>-41,67; -4,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 31,23</t>
+          <t>-16,47; 31,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-32,28; 7,97</t>
+          <t>-31,89; 10,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-26,18; 14,6</t>
+          <t>-27,45; 13,7</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 8,6</t>
+          <t>-2,38; 8,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,53</t>
+          <t>-2,46; 7,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 11,35</t>
+          <t>0,34; 12,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 14,4</t>
+          <t>1,33; 14,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 10,07</t>
+          <t>-3,77; 9,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 0,33</t>
+          <t>-14,61; 0,49</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,87</t>
+          <t>1,46; 9,43</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,21</t>
+          <t>-1,73; 6,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 4,19</t>
+          <t>-5,33; 4,04</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,62; 84,17</t>
+          <t>-17,03; 79,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,37; 73,27</t>
+          <t>-16,33; 65,48</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 101,9</t>
+          <t>2,17; 112,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,8; 73,02</t>
+          <t>5,01; 68,31</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 51,33</t>
+          <t>-14,43; 46,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,23; 0,3</t>
+          <t>-56,21; 1,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,84; 60,29</t>
+          <t>7,21; 57,91</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 45,19</t>
+          <t>-8,82; 40,87</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-31,28; 25,56</t>
+          <t>-26,85; 25,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,64; 14,9</t>
+          <t>1,6; 14,58</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 9,26</t>
+          <t>-2,7; 8,77</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 8,06</t>
+          <t>-2,59; 7,42</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,0; 19,66</t>
+          <t>3,63; 20,25</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 11,21</t>
+          <t>-4,18; 11,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 11,64</t>
+          <t>-9,25; 11,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,67; 15,73</t>
+          <t>4,58; 16,02</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 8,16</t>
+          <t>-1,57; 8,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 8,95</t>
+          <t>-3,16; 8,59</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>13,32; 239,74</t>
+          <t>8,43; 205,2</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 147,87</t>
+          <t>-26,97; 133,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 122,54</t>
+          <t>-25,35; 111,43</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18,02; 143,46</t>
+          <t>16,53; 141,34</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-21,76; 79,84</t>
+          <t>-18,79; 79,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-42,55; 73,96</t>
+          <t>-38,68; 71,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>25,89; 135,03</t>
+          <t>27,48; 144,44</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 72,25</t>
+          <t>-10,04; 72,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 78,26</t>
+          <t>-19,28; 69,24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 10,85</t>
+          <t>-1,87; 10,97</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 12,37</t>
+          <t>-1,67; 11,82</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,13; 2,27</t>
+          <t>-8,18; 2,63</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 9,51</t>
+          <t>-5,64; 9,75</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 12,32</t>
+          <t>-5,04; 11,58</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,24; -0,48</t>
+          <t>-12,92; -0,17</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 8,32</t>
+          <t>-1,66; 8,39</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 9,64</t>
+          <t>-0,84; 9,75</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,47; -0,49</t>
+          <t>-8,9; -0,28</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,6; 90,47</t>
+          <t>-10,63; 90,26</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 103,01</t>
+          <t>-9,15; 100,51</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-43,15; 20,91</t>
+          <t>-42,16; 23,28</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 42,67</t>
+          <t>-19,11; 44,31</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-10,92; 54,73</t>
+          <t>-16,89; 51,73</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-41,59; -2,12</t>
+          <t>-42,82; -0,11</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-5,47; 45,95</t>
+          <t>-7,18; 46,39</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 54,63</t>
+          <t>-3,65; 53,18</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-36,89; -2,78</t>
+          <t>-37,2; -1,52</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 1,43</t>
+          <t>-6,49; 1,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 5,01</t>
+          <t>-3,27; 5,2</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 5,15</t>
+          <t>-3,13; 5,23</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 6,72</t>
+          <t>-2,91; 7,03</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 4,66</t>
+          <t>-4,46; 5,02</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 3,4</t>
+          <t>-15,07; 3,48</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,16</t>
+          <t>-3,17; 2,98</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 3,64</t>
+          <t>-2,73; 3,92</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 2,72</t>
+          <t>-8,74; 2,58</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-38,85; 11,85</t>
+          <t>-37,69; 8,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 36,93</t>
+          <t>-18,79; 38,17</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 38,22</t>
+          <t>-18,46; 38,84</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 32,11</t>
+          <t>-11,27; 32,99</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,98; 22,87</t>
+          <t>-17,7; 24,47</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-60,43; 15,1</t>
+          <t>-59,53; 16,06</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 17,59</t>
+          <t>-15,1; 16,5</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,6; 19,89</t>
+          <t>-13,09; 21,89</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 15,04</t>
+          <t>-42,44; 14,29</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 5,13</t>
+          <t>-2,46; 5,44</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 1,28</t>
+          <t>-5,86; 0,89</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 55,62</t>
+          <t>-2,72; 55,42</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,8</t>
+          <t>-5,1; 3,09</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 0,42</t>
+          <t>-8,56; 0,28</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 4,83</t>
+          <t>-3,55; 4,7</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 3,01</t>
+          <t>-2,74; 2,88</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-6,12; -0,42</t>
+          <t>-5,95; -0,42</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 38,25</t>
+          <t>-1,3; 37,15</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 42,06</t>
+          <t>-14,81; 43,47</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-34,35; 9,52</t>
+          <t>-35,91; 7,05</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 431,05</t>
+          <t>-18,03; 417,29</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-22,28; 13,2</t>
+          <t>-20,13; 14,79</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-32,08; 2,0</t>
+          <t>-32,32; 1,57</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-14,53; 22,89</t>
+          <t>-13,42; 23,09</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 16,44</t>
+          <t>-13,57; 16,32</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-29,42; -2,32</t>
+          <t>-29,32; -2,5</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 211,81</t>
+          <t>-6,82; 194,24</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 3,52</t>
+          <t>-0,13; 3,48</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 2,41</t>
+          <t>-1,28; 2,32</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,78; 27,62</t>
+          <t>0,72; 24,28</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,59</t>
+          <t>0,34; 4,56</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,59</t>
+          <t>-2,34; 1,64</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-6,16; -0,06</t>
+          <t>-6,41; -0,03</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,49</t>
+          <t>0,65; 3,37</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,51</t>
+          <t>-1,36; 1,38</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 12,86</t>
+          <t>-1,06; 13,18</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 26,88</t>
+          <t>-0,76; 26,39</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 18,36</t>
+          <t>-8,41; 17,95</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>5,63; 197,56</t>
+          <t>5,08; 178,12</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>1,98; 20,41</t>
+          <t>1,4; 20,51</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 7,1</t>
+          <t>-9,82; 7,44</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-25,67; -0,36</t>
+          <t>-26,98; -0,79</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>4,23; 19,41</t>
+          <t>3,42; 19,11</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 8,4</t>
+          <t>-6,92; 7,71</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 70,43</t>
+          <t>-5,72; 72,82</t>
         </is>
       </c>
     </row>
